--- a/LunarEjectaCode/DSNE_env_final2.xlsx
+++ b/LunarEjectaCode/DSNE_env_final2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adestefa\Documents\GitHub\LunarEjecta\LunarEjectaCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C624B351-4C80-4028-88B6-46F7B7EC9534}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA8DA7F-9032-4582-9425-11BF544114E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{B7744BF9-1895-4C7D-8AB2-EBDB58F57359}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B7744BF9-1895-4C7D-8AB2-EBDB58F57359}"/>
   </bookViews>
   <sheets>
     <sheet name="Equator" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="17">
   <si>
     <t>Degrees</t>
   </si>
@@ -123,6 +123,15 @@
   <si>
     <t>Number Flux [#/m2/yr]</t>
   </si>
+  <si>
+    <t>kg/m2/yr</t>
+  </si>
+  <si>
+    <t># (&gt; 1 ug)/m2/yr</t>
+  </si>
+  <si>
+    <t>ejecta to primary</t>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -189,6 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -61112,18 +61122,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4264DBFB-0BE5-469E-9D07-8F4A705B363F}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1796875" customWidth="1"/>
+    <col min="16" max="16" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -61145,7 +61158,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -61183,7 +61196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -61208,8 +61221,17 @@
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -61255,8 +61277,23 @@
         <f>SUM(Pole!$S$1:$AF$36)</f>
         <v>1.4281280962489999E-20</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1">
+        <f>SUM(D4:F12)</f>
+        <v>1.3970020407606029E-6</v>
+      </c>
+      <c r="O4" s="8">
+        <f>N4*31600000</f>
+        <v>44.145264488035053</v>
+      </c>
+      <c r="P4">
+        <f>O4/3.21</f>
+        <v>13.752418843624627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -61302,8 +61339,23 @@
         <f>SUM(Pole!$S$37:$AF$71)</f>
         <v>1.2720487359500002E-15</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1">
+        <f>SUM(G4:I12)</f>
+        <v>6.9396850926673687E-7</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" ref="O5:O6" si="0">N5*31600000</f>
+        <v>21.929404892828884</v>
+      </c>
+      <c r="P5">
+        <f>O5/3.23</f>
+        <v>6.7892894405042989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>20</v>
       </c>
@@ -61349,8 +61401,23 @@
         <f>SUM(Pole!$S$72:$AF$104)</f>
         <v>5.591118399999999E-13</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="1">
+        <f>SUM(J4:L12)</f>
+        <v>3.8259947633608261E-7</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="0"/>
+        <v>12.090143452220211</v>
+      </c>
+      <c r="P6">
+        <f>O6/3.42</f>
+        <v>3.5351296643918748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>30</v>
       </c>
@@ -61397,7 +61464,7 @@
         <v>2.9874322999999997E-11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>40</v>
       </c>
@@ -61443,8 +61510,12 @@
         <f>SUM(Pole!$S$134:$AF$158)</f>
         <v>5.6962382999999984E-10</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N8" s="1">
+        <f>N4/N6</f>
+        <v>3.651343316354803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>50</v>
       </c>
@@ -61491,7 +61562,7 @@
         <v>4.2848480000000012E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>60</v>
       </c>
@@ -61538,7 +61609,7 @@
         <v>1.2016785E-8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>70</v>
       </c>
@@ -61585,7 +61656,7 @@
         <v>1.4801778000000001E-8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>80</v>
       </c>
@@ -61632,7 +61703,7 @@
         <v>5.5327209999999994E-9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -61654,7 +61725,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -61692,7 +61763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -61733,35 +61804,35 @@
         <v>2.7501460622714418E-12</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" ref="E17:L17" si="0">E4*(578094000)*4/161.272</f>
+        <f t="shared" ref="E17:L17" si="1">E4*(578094000)*4/161.272</f>
         <v>1.9677471789387368E-12</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.315268333955877E-13</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3275888992742691E-12</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.585495335621115E-13</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4824448311916653E-13</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8668270207351562E-13</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9809367936569282E-13</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0477014823973646E-13</v>
       </c>
     </row>
@@ -61776,39 +61847,39 @@
         <v>14.941599999999999</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ref="D18:L18" si="1">D5*(578094000)*4/161.272</f>
+        <f t="shared" ref="D18:L18" si="2">D5*(578094000)*4/161.272</f>
         <v>3.2082659854099903E-7</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5742086345692747E-7</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9534265250194203E-8</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5490867667445807E-7</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.7962923341439041E-8</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2876556674152038E-8</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.139442504241282E-8</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1571307625824686E-8</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8239092761552644E-8</v>
       </c>
     </row>
@@ -61823,39 +61894,39 @@
         <v>24.898399999999999</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:L19" si="2">D6*(578094000)*4/161.272</f>
+        <f t="shared" ref="D19:L19" si="3">D6*(578094000)*4/161.272</f>
         <v>2.0231027406786051E-4</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.2040260624410976E-5</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0985389577094475E-5</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7694049054853946E-5</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1285952955705268E-5</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.3791773574362726E-6</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1722336013195109E-5</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2434559481903862E-5</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.0167468632610734E-6</v>
       </c>
     </row>
@@ -61870,39 +61941,39 @@
         <v>34.847499999999997</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" ref="D20:L20" si="3">D7*(578094000)*4/161.272</f>
+        <f t="shared" ref="D20:L20" si="4">D7*(578094000)*4/161.272</f>
         <v>1.352525157028275E-2</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="3"/>
+        <f>E7*(578094000)*4/161.272</f>
         <v>5.0961556537803968E-3</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5604714837540071E-4</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5316274206786065E-3</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5833386702768151E-3</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3015602032978294E-4</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4739580910461837E-3</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4189212416588128E-3</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2834879905655042E-4</v>
       </c>
     </row>
@@ -61917,39 +61988,39 @@
         <v>44.782400000000003</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" ref="D21:L21" si="4">D8*(578094000)*4/161.272</f>
+        <f t="shared" ref="D21:L21" si="5">D8*(578094000)*4/161.272</f>
         <v>0.23455469356456166</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.6984757192950082E-2</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1274733586902739E-2</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11327572700499532</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4124524485843558E-2</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.7231259414618312E-3</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.043102574929312E-2</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4303782655890671E-2</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.1674715605937788E-3</v>
       </c>
     </row>
@@ -61964,39 +62035,39 @@
         <v>54.689799999999998</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" ref="D22:L22" si="5">D9*(578094000)*4/161.272</f>
+        <f t="shared" ref="D22:L22" si="6">D9*(578094000)*4/161.272</f>
         <v>1.5331625123949102</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.59975472105834116</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.7335658283022607E-2</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.74044382383883123</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30234725560179082</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8761137385147983E-2</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.39584096954759657</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1658978797068803</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1437693330819998E-2</v>
       </c>
     </row>
@@ -62011,39 +62082,39 @@
         <v>64.536500000000004</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ref="D23:L23" si="6">D10*(578094000)*4/161.272</f>
+        <f t="shared" ref="D23:L23" si="7">D10*(578094000)*4/161.272</f>
         <v>4.3688825312912369</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8669495545739871</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27015449110816392</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.109996930480678</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92828092860791689</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.21105705007280876</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1295975113100851</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.50519792095193217</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.17230098982563621</v>
       </c>
     </row>
@@ -62058,39 +62129,39 @@
         <v>74.206800000000001</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ref="D24:L24" si="7">D11*(578094000)*4/161.272</f>
+        <f t="shared" ref="D24:L24" si="8">D11*(578094000)*4/161.272</f>
         <v>5.0314810900094251</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7776350929698403</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.47824537003119716</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4300321375777569</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3614390430348726</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.31316273334339306</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3020937179076342</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.73519553957587191</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.21223322216211124</v>
       </c>
     </row>
@@ -62105,39 +62176,39 @@
         <v>82.933400000000006</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" ref="D25:L25" si="8">D12*(578094000)*4/161.272</f>
+        <f t="shared" ref="D25:L25" si="9">D12*(578094000)*4/161.272</f>
         <v>1.2484051625824693</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1716176526201698</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.25470691447690857</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.60293821982092366</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.56795480075966076</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13703916569519325</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.32323538567389259</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.30518224331762489</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.9330145686145145E-2</v>
       </c>
     </row>
@@ -62835,20 +62906,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A14:C14"/>
@@ -62857,6 +62914,20 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D41:F41"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LunarEjectaCode/DSNE_env_final2.xlsx
+++ b/LunarEjectaCode/DSNE_env_final2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adestefa\Documents\GitHub\LunarEjecta\LunarEjectaCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA8DA7F-9032-4582-9425-11BF544114E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF4FDF0-8B01-4F50-A5A7-5A777C6E5D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B7744BF9-1895-4C7D-8AB2-EBDB58F57359}"/>
+    <workbookView xWindow="23250" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B7744BF9-1895-4C7D-8AB2-EBDB58F57359}"/>
   </bookViews>
   <sheets>
     <sheet name="Equator" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -195,10 +197,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -61124,7 +61126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4264DBFB-0BE5-469E-9D07-8F4A705B363F}">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -61137,26 +61139,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -61206,21 +61208,21 @@
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
       <c r="N3" t="s">
         <v>14</v>
       </c>
@@ -61284,13 +61286,13 @@
         <f>SUM(D4:F12)</f>
         <v>1.3970020407606029E-6</v>
       </c>
-      <c r="O4" s="8">
-        <f>N4*31600000</f>
-        <v>44.145264488035053</v>
+      <c r="O4" s="7">
+        <f>N4*31460000</f>
+        <v>43.949684202328569</v>
       </c>
       <c r="P4">
         <f>O4/3.21</f>
-        <v>13.752418843624627</v>
+        <v>13.691490405709835</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -61346,13 +61348,13 @@
         <f>SUM(G4:I12)</f>
         <v>6.9396850926673687E-7</v>
       </c>
-      <c r="O5" s="8">
-        <f t="shared" ref="O5:O6" si="0">N5*31600000</f>
-        <v>21.929404892828884</v>
+      <c r="O5" s="7">
+        <f t="shared" ref="O5:O6" si="0">N5*31460000</f>
+        <v>21.832249301531544</v>
       </c>
       <c r="P5">
         <f>O5/3.23</f>
-        <v>6.7892894405042989</v>
+        <v>6.7592103100716852</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -61408,13 +61410,13 @@
         <f>SUM(J4:L12)</f>
         <v>3.8259947633608261E-7</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <f t="shared" si="0"/>
-        <v>12.090143452220211</v>
+        <v>12.03657952553316</v>
       </c>
       <c r="P6">
         <f>O6/3.42</f>
-        <v>3.5351296643918748</v>
+        <v>3.5194676975243158</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -61704,26 +61706,26 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -61773,21 +61775,21 @@
       <c r="C16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
@@ -62213,16 +62215,16 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
@@ -62254,11 +62256,11 @@
       <c r="C30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
@@ -62449,16 +62451,16 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7" t="s">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
@@ -62490,11 +62492,11 @@
       <c r="C43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
@@ -62681,12 +62683,12 @@
         <v>12</v>
       </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
@@ -62718,11 +62720,11 @@
       <c r="C56" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
@@ -62906,6 +62908,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A14:C14"/>
@@ -62921,13 +62930,6 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
